--- a/public/templates/NIVEA_ABP2026_Nebula_Templates.xlsx
+++ b/public/templates/NIVEA_ABP2026_Nebula_Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JainArc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC4627-5E1F-4963-9F65-64011749BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC99E17-E65C-4013-901B-B5FA5B4F7D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{8E512825-ADF2-4DE9-A7A3-EB34BBE80329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{8E512825-ADF2-4DE9-A7A3-EB34BBE80329}"/>
   </bookViews>
   <sheets>
     <sheet name="TUTORIAL" sheetId="15" state="hidden" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Audience &amp; Reach- blocked'!$B$2:$R$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Media Std Values'!$A$3:$N$340</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NIVEA Game Plan Table'!$Y$3:$Y$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Media Std Values'!$A$3:$N$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NIVEA Game Plan Table'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Nivea Std Values'!$A$3:$P$339</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Opt1 Game Plan Quarterly Split'!$B$2:$Z$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SOV Nivea'!$B$2:$E$2</definedName>
@@ -36,6 +36,7 @@
     <definedName name="Campaign_Type" localSheetId="6">std_new1011[Campaign Type]</definedName>
     <definedName name="Campaign_Type" localSheetId="5">std_new1011[Campaign Type]</definedName>
     <definedName name="Campaign_Type">std_new1011[Campaign Type]</definedName>
+    <definedName name="Campaigntype">std_new1011[Campaign Type]</definedName>
     <definedName name="Categories_NIVEA">#REF!</definedName>
     <definedName name="Currencies" localSheetId="6">currency[Currencies]</definedName>
     <definedName name="Currencies" localSheetId="5">currency[Currencies]</definedName>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="620">
   <si>
     <t xml:space="preserve">BRAZIL MEDIA &amp; DIGITAL SUFFICIENCY TUTORIAL </t>
   </si>
@@ -1508,15 +1509,6 @@
     <t>Campaign Type</t>
   </si>
   <si>
-    <t>Innovation</t>
-  </si>
-  <si>
-    <t>Base Business (Maintenance)</t>
-  </si>
-  <si>
-    <t>Range Extension</t>
-  </si>
-  <si>
     <t>Currencies</t>
   </si>
   <si>
@@ -2192,6 +2184,12 @@
   </si>
   <si>
     <t>Combined Potential Reach</t>
+  </si>
+  <si>
+    <t>Innovation / NPD</t>
+  </si>
+  <si>
+    <t>Base Business / Core</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2796,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3032,9 +3030,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3112,6 +3107,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3120,9 +3125,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6263,7 +6265,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -13534,8 +13536,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{96DADDBC-917E-7547-83A7-CE505035FF24}" name="currency" displayName="currency" ref="A25:A195" totalsRowShown="0" headerRowCellStyle="Normal 3">
-  <autoFilter ref="A25:A195" xr:uid="{96DADDBC-917E-7547-83A7-CE505035FF24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{96DADDBC-917E-7547-83A7-CE505035FF24}" name="currency" displayName="currency" ref="A24:A194" totalsRowShown="0" headerRowCellStyle="Normal 3">
+  <autoFilter ref="A24:A194" xr:uid="{96DADDBC-917E-7547-83A7-CE505035FF24}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{936919E3-7516-F944-8610-BF58744A8048}" name="Currencies"/>
   </tableColumns>
@@ -13811,9 +13813,9 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{694C0B1A-4130-C44F-8832-974AD4286BAC}" name="std_new1011" displayName="std_new1011" ref="A16:A19" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
-  <autoFilter ref="A16:A19" xr:uid="{694C0B1A-4130-C44F-8832-974AD4286BAC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{694C0B1A-4130-C44F-8832-974AD4286BAC}" name="std_new1011" displayName="std_new1011" ref="A16:A18" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+  <autoFilter ref="A16:A18" xr:uid="{694C0B1A-4130-C44F-8832-974AD4286BAC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A18">
     <sortCondition ref="A4:A14"/>
   </sortState>
   <tableColumns count="1">
@@ -14227,7 +14229,7 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="U10" s="125"/>
+      <c r="U10" s="124"/>
     </row>
     <row r="11" spans="2:29" ht="21" customHeight="1">
       <c r="C11" t="s">
@@ -14576,7 +14578,7 @@
       <c r="AC24" s="31"/>
     </row>
     <row r="25" spans="2:29" ht="26.25" customHeight="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="132" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="42" t="s">
@@ -14612,7 +14614,7 @@
       <c r="AC25" s="31"/>
     </row>
     <row r="26" spans="2:29" ht="26.25" customHeight="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="42" t="s">
         <v>32</v>
       </c>
@@ -14841,7 +14843,7 @@
       <c r="C37" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="126"/>
+      <c r="L37" s="125"/>
     </row>
     <row r="38" spans="3:12" ht="24" customHeight="1">
       <c r="C38" t="s">
@@ -14871,147 +14873,154 @@
       <c r="C43" s="41"/>
     </row>
     <row r="44" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C44" s="128" t="s">
+      <c r="C44" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
       <c r="F44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C45" s="128" t="s">
+      <c r="C45" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
       <c r="F45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
       <c r="F46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C47" s="128" t="s">
+      <c r="C47" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
       <c r="F47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C48" s="128" t="s">
+      <c r="C48" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
       <c r="F48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C49" s="128" t="s">
+      <c r="C49" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
       <c r="F49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C50" s="128" t="s">
+      <c r="C50" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
       <c r="F50" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
       <c r="F51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
       <c r="F52" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C53" s="128" t="s">
+      <c r="C53" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
       <c r="F53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C54" s="128" t="s">
+      <c r="C54" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
       <c r="F54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C55" s="128" t="s">
+      <c r="C55" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
       <c r="F55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
       <c r="F56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
       <c r="F57" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C50:E50"/>
@@ -15020,13 +15029,6 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6A1583BE-6B23-40A3-8EA0-B97148EBC519}"/>
@@ -15140,7 +15142,7 @@
         <v>63</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>67</v>
@@ -15155,13 +15157,13 @@
         <v>73</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>77</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="S2" s="7"/>
     </row>
@@ -15179,7 +15181,7 @@
         <v>Q10 Skin diet</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F3" s="47">
         <v>37431191</v>
@@ -15222,7 +15224,7 @@
         <v>UV Face</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F4" s="47">
         <v>23938790</v>
@@ -16216,10 +16218,10 @@
         <v/>
       </c>
       <c r="E38" s="47" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -22421,39 +22423,39 @@
   <sheetData>
     <row r="3" spans="2:11" ht="37">
       <c r="B3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C4" s="4">
         <f>SUM(C5:C7)</f>
@@ -22490,7 +22492,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -22504,7 +22506,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -22518,7 +22520,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -22532,7 +22534,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C8" s="4">
         <f>SUM(C9:C11)</f>
@@ -22569,7 +22571,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -22583,7 +22585,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22597,7 +22599,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22611,7 +22613,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C12" s="4">
         <f>SUM(C13:C15)</f>
@@ -22648,7 +22650,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22662,7 +22664,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22676,7 +22678,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -22690,7 +22692,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C16" s="4">
         <f>SUM(C17:C19)</f>
@@ -22727,7 +22729,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -22741,7 +22743,7 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -22755,7 +22757,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -22806,7 +22808,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -22820,7 +22822,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -22834,7 +22836,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -22885,7 +22887,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -22899,7 +22901,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -22913,7 +22915,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -22927,7 +22929,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C28" s="4">
         <f>C24+C20+C16+C12+C8+C4</f>
@@ -35853,10 +35855,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C851AB-EC86-5E4E-9604-B029C1E12E94}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF228"/>
+  <dimension ref="A1:AF212"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="21" customHeight="1"/>
@@ -35870,7 +35872,8 @@
     <col min="7" max="7" width="15.3828125" customWidth="1"/>
     <col min="8" max="8" width="15" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.84375" style="7" customWidth="1"/>
-    <col min="10" max="11" width="14.3828125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.3828125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.3828125" style="129" customWidth="1"/>
     <col min="12" max="12" width="16.61328125" style="7" customWidth="1"/>
     <col min="13" max="24" width="9.3828125" style="7" customWidth="1"/>
     <col min="25" max="25" width="12" style="7" customWidth="1"/>
@@ -35953,7 +35956,7 @@
       <c r="J1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="127" t="s">
         <v>141</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -36023,7 +36026,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="92"/>
       <c r="J2" s="92"/>
-      <c r="K2" s="98">
+      <c r="K2" s="128">
         <f>INT((Game_Plan_2026[[#This Row],[End Date]] - Game_Plan_2026[[#This Row],[Initial Date]] - WEEKDAY(Game_Plan_2026[[#This Row],[Initial Date]], 2)) / 7) + 1</f>
         <v>0</v>
       </c>
@@ -36051,11 +36054,9 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="21" customHeight="1">
-      <c r="AD3" s="10"/>
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="21" customHeight="1">
-      <c r="O4" s="10"/>
       <c r="AF4" s="7"/>
     </row>
     <row r="5" spans="1:32" ht="21" customHeight="1">
@@ -36681,54 +36682,6 @@
     </row>
     <row r="212" spans="32:32" ht="21" customHeight="1">
       <c r="AF212" s="7"/>
-    </row>
-    <row r="213" spans="32:32" ht="21" customHeight="1">
-      <c r="AF213" s="7"/>
-    </row>
-    <row r="214" spans="32:32" ht="21" customHeight="1">
-      <c r="AF214" s="7"/>
-    </row>
-    <row r="215" spans="32:32" ht="21" customHeight="1">
-      <c r="AF215" s="7"/>
-    </row>
-    <row r="216" spans="32:32" ht="21" customHeight="1">
-      <c r="AF216" s="7"/>
-    </row>
-    <row r="217" spans="32:32" ht="21" customHeight="1">
-      <c r="AF217" s="7"/>
-    </row>
-    <row r="218" spans="32:32" ht="21" customHeight="1">
-      <c r="AF218" s="7"/>
-    </row>
-    <row r="219" spans="32:32" ht="21" customHeight="1">
-      <c r="AF219" s="7"/>
-    </row>
-    <row r="220" spans="32:32" ht="21" customHeight="1">
-      <c r="AF220" s="7"/>
-    </row>
-    <row r="221" spans="32:32" ht="21" customHeight="1">
-      <c r="AF221" s="7"/>
-    </row>
-    <row r="222" spans="32:32" ht="21" customHeight="1">
-      <c r="AF222" s="7"/>
-    </row>
-    <row r="223" spans="32:32" ht="21" customHeight="1">
-      <c r="AF223" s="7"/>
-    </row>
-    <row r="224" spans="32:32" ht="21" customHeight="1">
-      <c r="AF224" s="7"/>
-    </row>
-    <row r="225" spans="32:32" ht="21" customHeight="1">
-      <c r="AF225" s="7"/>
-    </row>
-    <row r="226" spans="32:32" ht="21" customHeight="1">
-      <c r="AF226" s="7"/>
-    </row>
-    <row r="227" spans="32:32" ht="21" customHeight="1">
-      <c r="AF227" s="7"/>
-    </row>
-    <row r="228" spans="32:32" ht="21" customHeight="1">
-      <c r="AF228" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -36737,7 +36690,7 @@
       <formula>NOT(ISERROR(SEARCH("Empty",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="15">
+  <dataValidations xWindow="728" yWindow="453" count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Select one value from the dropdown." promptTitle="Media Type" prompt="Select from the dropdown" sqref="G2" xr:uid="{7B81FE50-09DB-A148-812F-60DA996496FD}">
       <formula1>Media_Type</formula1>
     </dataValidation>
@@ -36758,15 +36711,6 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Please enter your total WOA for this burst and channel." promptTitle="WOA" prompt="Insert WOA for this line alone (burst / channel)" sqref="Y2" xr:uid="{04A3DD81-632A-5043-A679-C299A9BC6963}">
       <formula1>ISNUMBER(Y2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Select one value from the dropdown." promptTitle="Campaign Archetype" prompt="Select your campaign archetype from the dropdown" sqref="E2" xr:uid="{651DEC91-A01F-E64E-B828-0D784B0F06FD}">
-      <formula1>Campaign_Type</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input" error="Select one value from the dropdown." prompt="Select your campaign archetype from the dropdown" sqref="E2" xr:uid="{1193E71A-090F-6040-A8E4-24B92C45CCD4}">
-      <formula1>Campaign_Type</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Campaign Archetype" prompt="Select campaign archetype from the dropdown value" sqref="E2" xr:uid="{31625430-FEEF-0C43-87C4-D39810144ECB}">
-      <formula1>"Innovation,Base Business,Masterbrand Extension"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" promptTitle="WOFF" prompt="Caculated field - don't fill (Total weeks - Total WOA)" sqref="Z2" xr:uid="{85DB9EA7-D889-8647-8C6D-51D8482A0B02}">
       <formula1>ISNUMBER(Z2)</formula1>
     </dataValidation>
@@ -36774,11 +36718,14 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Please insert a number in this field" promptTitle="Burst" prompt="Insert burst number" sqref="F2" xr:uid="{F2D260E2-FF59-3A4F-A7BE-9166826CB3CD}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{032E6BE0-6297-4278-B189-0F675B17196D}">
+      <formula1>Campaign_Type</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="TRPs only required for:_x000a_- Open TV,_x000a_- Paid TV" promptTitle="TRPs" prompt="TRPs only required for:_x000a_- Open TV,_x000a_- Paid TV" sqref="AA2" xr:uid="{CAB3B5B6-295B-7A44-BBBC-21BBF3B5933A}">
       <formula1>OR($H2="Paid TV",$H2="Open TV")</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="R1+ only required for:_x000a_- PM &amp; FF, _x000a_- Influencer Amplification, _x000a_- Other Digital,_x000a_- Open TV,_x000a_- Paid TV" promptTitle="Reach 1+ (in %)" prompt="R1+ only required for:_x000a_- PM &amp; FF, _x000a_- Influencer Amplification, _x000a_- Other Digital,_x000a_- Open TV,_x000a_- Paid TV" sqref="AB2" xr:uid="{ADCDBA70-BA64-CD42-927F-FA35C9EAE8ED}">
-      <formula1>OR($H2="PM &amp; FF",$H2="Influencer Amp.",$H2="Other Digital",$H2="Open TV",$H2="Paid TV")</formula1>
+      <formula1>OR($H2="PM &amp; FF",$H2="Influencers Amplification",$H2="Other Digital",$H2="Open TV",$H2="Paid TV")</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="TRPs only required for:_x000a_- Open TV,_x000a_- Paid TV" promptTitle="Reach 3+ (in %)" prompt="R3+ only required for:_x000a_- Open TV,_x000a_- Paid TV" sqref="AC2" xr:uid="{A27D0F69-73F0-7341-B07E-7F10B60E0CF9}">
       <formula1>OR($H2="Paid TV",$H2="Open TV")</formula1>
@@ -36793,7 +36740,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="728" yWindow="453" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Select one value from the dropdown." promptTitle="Category" prompt="Select a category from the dropdown" xr:uid="{3A6AFAD8-8C5F-B64B-9464-CD0802A75D0E}">
           <x14:formula1>
             <xm:f>_xlfn.ANCHORARRAY('Nivea Std Values'!$F$6)</xm:f>
@@ -36835,7 +36782,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.5"/>
   <cols>
@@ -36903,19 +36852,19 @@
         <v>13</v>
       </c>
       <c r="D1" s="96" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="96" t="s">
         <v>602</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="H1" s="96" t="s">
         <v>603</v>
-      </c>
-      <c r="F1" s="96" t="s">
-        <v>604</v>
-      </c>
-      <c r="G1" s="96" t="s">
-        <v>605</v>
-      </c>
-      <c r="H1" s="96" t="s">
-        <v>606</v>
       </c>
       <c r="I1" s="96" t="s">
         <v>157</v>
@@ -36924,13 +36873,13 @@
         <v>57</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L1" s="96" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M1" s="96" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N1" s="96" t="s">
         <v>67</v>
@@ -36939,7 +36888,7 @@
         <v>69</v>
       </c>
       <c r="P1" s="96" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q1" s="96" t="s">
         <v>158</v>
@@ -36948,34 +36897,34 @@
         <v>159</v>
       </c>
       <c r="S1" s="95" t="s">
+        <v>608</v>
+      </c>
+      <c r="T1" s="95" t="s">
+        <v>609</v>
+      </c>
+      <c r="U1" s="95" t="s">
+        <v>610</v>
+      </c>
+      <c r="V1" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="T1" s="95" t="s">
+      <c r="W1" s="95" t="s">
         <v>612</v>
       </c>
-      <c r="U1" s="95" t="s">
+      <c r="X1" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="V1" s="95" t="s">
+      <c r="Y1" s="95" t="s">
         <v>614</v>
       </c>
-      <c r="W1" s="95" t="s">
+      <c r="Z1" s="95" t="s">
         <v>615</v>
       </c>
-      <c r="X1" s="95" t="s">
+      <c r="AA1" s="95" t="s">
         <v>616</v>
       </c>
-      <c r="Y1" s="95" t="s">
+      <c r="AB1" s="95" t="s">
         <v>617</v>
-      </c>
-      <c r="Z1" s="95" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA1" s="95" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB1" s="95" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="21" customHeight="1">
@@ -36999,11 +36948,11 @@
         <f>_xlfn.CONCAT(Audience_Reach_2025[[#This Row],[TV Demo Gender]]," ",Audience_Reach_2025[[#This Row],[TV Demo Min. Age]]," - ",Audience_Reach_2025[[#This Row],[TV Demo Max. Age]]," ",Audience_Reach_2025[[#This Row],[TV SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="122"/>
       <c r="J2" s="93"/>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
-      <c r="M2" s="118" t="str">
+      <c r="M2" s="117" t="str">
         <f>IFERROR(INDEX(TV_Targets[Sat Point],MATCH(Audience_Reach_2025[[#This Row],[Final TV Target (don''t fill)]],TV_Targets[FINAL],0)),"")</f>
         <v/>
       </c>
@@ -37144,13 +37093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="134"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>161</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -37176,8 +37125,8 @@
       <c r="C3" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1">
       <c r="A4" s="48" t="s">
@@ -37225,11 +37174,11 @@
       <c r="B7" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1">
       <c r="A8" s="48" t="s">
@@ -37254,8 +37203,8 @@
       <c r="C9" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1">
       <c r="A10" s="48" t="s">
@@ -37303,11 +37252,11 @@
       <c r="B13" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1">
       <c r="A14" s="48" t="s">
@@ -37381,11 +37330,11 @@
       <c r="B19" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1">
       <c r="A20" s="48" t="s">
@@ -37459,11 +37408,11 @@
       <c r="B25" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1">
       <c r="A26" s="48" t="s">
@@ -37537,11 +37486,11 @@
       <c r="B31" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="1:5" ht="21" customHeight="1">
       <c r="A32" s="48" t="s">
@@ -37615,11 +37564,11 @@
       <c r="B37" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
     </row>
     <row r="38" spans="1:5" ht="21" customHeight="1">
       <c r="A38" s="48" t="s">
@@ -37693,11 +37642,11 @@
       <c r="B43" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1">
       <c r="A44" s="48" t="s">
@@ -37771,11 +37720,11 @@
       <c r="B49" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
     </row>
     <row r="50" spans="1:5" ht="21" customHeight="1">
       <c r="A50" s="48" t="s">
@@ -37849,11 +37798,11 @@
       <c r="B55" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="121" t="s">
+      <c r="C55" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
     </row>
     <row r="56" spans="1:5" ht="21" customHeight="1">
       <c r="A56" s="48" t="s">
@@ -37927,11 +37876,11 @@
       <c r="B61" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="121" t="s">
+      <c r="C61" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
     </row>
     <row r="62" spans="1:5" ht="21" customHeight="1">
       <c r="A62" s="48" t="s">
@@ -38005,11 +37954,11 @@
       <c r="B67" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="121" t="s">
+      <c r="C67" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="121"/>
     </row>
     <row r="68" spans="1:5" ht="21" customHeight="1">
       <c r="A68" s="48" t="s">
@@ -38083,11 +38032,11 @@
       <c r="B73" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="121" t="s">
+      <c r="C73" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="121"/>
     </row>
     <row r="74" spans="1:5" ht="21" customHeight="1">
       <c r="A74" s="48" t="s">
@@ -38161,11 +38110,11 @@
       <c r="B79" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="121" t="s">
+      <c r="C79" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="122"/>
-      <c r="E79" s="122"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="121"/>
     </row>
     <row r="80" spans="1:5" ht="21" customHeight="1">
       <c r="A80" s="48" t="s">
@@ -38239,7 +38188,7 @@
       <c r="B85" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="120" t="s">
+      <c r="C85" s="119" t="s">
         <v>170</v>
       </c>
       <c r="D85" s="48"/>
@@ -38301,158 +38250,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="99"/>
-      <c r="I1" s="102" t="str" cm="1">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="98"/>
+      <c r="I1" s="101" t="str" cm="1">
         <f t="array" ref="I1">TRANSPOSE(_xlfn.UNIQUE(TV_Targets[FINAL]))</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="104" t="s">
+      <c r="L2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="104" t="s">
+      <c r="N2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="104" t="s">
+      <c r="P2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="104" t="s">
+      <c r="Q2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="104" t="s">
+      <c r="R2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="104" t="s">
+      <c r="S2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="104" t="s">
+      <c r="T2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="104" t="s">
+      <c r="U2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="104" t="s">
+      <c r="V2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="104" t="s">
+      <c r="W2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="104" t="s">
+      <c r="X2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="104" t="s">
+      <c r="Y2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="104" t="s">
+      <c r="Z2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="104" t="s">
+      <c r="AA2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="104" t="s">
+      <c r="AB2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="104" t="s">
+      <c r="AC2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="104" t="s">
+      <c r="AD2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="104" t="s">
+      <c r="AE2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="104" t="s">
+      <c r="AF2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="104" t="s">
+      <c r="AG2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="134" t="s">
+      <c r="AL2" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="134"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
     </row>
     <row r="3" spans="1:51">
       <c r="A3" s="62"/>
@@ -38463,7 +38412,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F3" s="101" t="str">
+      <c r="F3" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$AG$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -38471,84 +38420,84 @@
       <c r="H3">
         <v>100</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AL3" s="127">
+      <c r="I3" s="123"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AL3" s="126">
         <f t="shared" ref="AL3:AL30" si="0">IF(I3=I$31,I3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="127">
+      <c r="AM3" s="126">
         <f t="shared" ref="AM3:AM30" si="1">IF(J3=J$31,J3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="127">
+      <c r="AN3" s="126">
         <f t="shared" ref="AN3:AN30" si="2">IF(K3=K$31,K3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="127">
+      <c r="AO3" s="126">
         <f t="shared" ref="AO3:AO30" si="3">IF(L3=L$31,L3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="127">
+      <c r="AP3" s="126">
         <f t="shared" ref="AP3:AP30" si="4">IF(M3=M$31,M3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="127">
+      <c r="AQ3" s="126">
         <f t="shared" ref="AQ3:AQ30" si="5">IF(N3=N$31,N3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AR3" s="127">
+      <c r="AR3" s="126">
         <f t="shared" ref="AR3:AR30" si="6">IF(O3=O$31,O3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="127">
+      <c r="AS3" s="126">
         <f t="shared" ref="AS3:AS30" si="7">IF(P3=P$31,P3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="127">
+      <c r="AT3" s="126">
         <f t="shared" ref="AT3:AT30" si="8">IF(Q3=Q$31,Q3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="127">
+      <c r="AU3" s="126">
         <f t="shared" ref="AU3:AU30" si="9">IF(R3=R$31,R3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AV3" s="127">
+      <c r="AV3" s="126">
         <f t="shared" ref="AV3:AV30" si="10">IF(S3=S$31,S3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="127">
+      <c r="AW3" s="126">
         <f t="shared" ref="AW3:AW30" si="11">IF(T3=T$31,T3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AX3" s="127">
+      <c r="AX3" s="126">
         <f t="shared" ref="AX3:AX30" si="12">IF(U3=U$31,U3,NA())</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="127">
+      <c r="AY3" s="126">
         <f t="shared" ref="AY3:AY30" si="13">IF(V3=V$31,V3,NA())</f>
         <v>0</v>
       </c>
@@ -38562,7 +38511,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F4" s="101" t="str">
+      <c r="F4" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -38570,84 +38519,84 @@
       <c r="H4">
         <v>150</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AL4" s="127">
+      <c r="I4" s="123"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AL4" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="127">
+      <c r="AM4" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN4" s="127">
+      <c r="AN4" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="127">
+      <c r="AO4" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP4" s="127">
+      <c r="AP4" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="127">
+      <c r="AQ4" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="127">
+      <c r="AR4" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="127">
+      <c r="AS4" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT4" s="127">
+      <c r="AT4" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU4" s="127">
+      <c r="AU4" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV4" s="127">
+      <c r="AV4" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW4" s="127">
+      <c r="AW4" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX4" s="127">
+      <c r="AX4" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY4" s="127">
+      <c r="AY4" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38661,7 +38610,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F5" s="101" t="str">
+      <c r="F5" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -38669,84 +38618,84 @@
       <c r="H5">
         <v>200</v>
       </c>
-      <c r="I5" s="124"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AL5" s="127">
+      <c r="I5" s="123"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AL5" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM5" s="127">
+      <c r="AM5" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="127">
+      <c r="AN5" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="127">
+      <c r="AO5" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="127">
+      <c r="AP5" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ5" s="127">
+      <c r="AQ5" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR5" s="127">
+      <c r="AR5" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="127">
+      <c r="AS5" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT5" s="127">
+      <c r="AT5" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU5" s="127">
+      <c r="AU5" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV5" s="127">
+      <c r="AV5" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW5" s="127">
+      <c r="AW5" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX5" s="127">
+      <c r="AX5" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY5" s="127">
+      <c r="AY5" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38760,7 +38709,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F6" s="101" t="str">
+      <c r="F6" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -38768,84 +38717,84 @@
       <c r="H6">
         <v>250</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="107"/>
-      <c r="AL6" s="127">
+      <c r="I6" s="123"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AL6" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM6" s="127">
+      <c r="AM6" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="127">
+      <c r="AN6" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="127">
+      <c r="AO6" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP6" s="127">
+      <c r="AP6" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="127">
+      <c r="AQ6" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR6" s="127">
+      <c r="AR6" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="127">
+      <c r="AS6" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT6" s="127">
+      <c r="AT6" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU6" s="127">
+      <c r="AU6" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV6" s="127">
+      <c r="AV6" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW6" s="127">
+      <c r="AW6" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX6" s="127">
+      <c r="AX6" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY6" s="127">
+      <c r="AY6" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38859,7 +38808,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F7" s="101" t="str">
+      <c r="F7" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -38867,84 +38816,84 @@
       <c r="H7">
         <v>300</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AL7" s="127">
+      <c r="I7" s="123"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AL7" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="127">
+      <c r="AM7" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="127">
+      <c r="AN7" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="127">
+      <c r="AO7" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="127">
+      <c r="AP7" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ7" s="127">
+      <c r="AQ7" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR7" s="127">
+      <c r="AR7" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="127">
+      <c r="AS7" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT7" s="127">
+      <c r="AT7" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU7" s="127">
+      <c r="AU7" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV7" s="127">
+      <c r="AV7" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW7" s="127">
+      <c r="AW7" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX7" s="127">
+      <c r="AX7" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY7" s="127">
+      <c r="AY7" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38958,7 +38907,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F8" s="101" t="str">
+      <c r="F8" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -38966,84 +38915,84 @@
       <c r="H8">
         <v>350</v>
       </c>
-      <c r="I8" s="124"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="107"/>
-      <c r="AL8" s="127">
+      <c r="I8" s="123"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AL8" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="127">
+      <c r="AM8" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="127">
+      <c r="AN8" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="127">
+      <c r="AO8" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="127">
+      <c r="AP8" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="127">
+      <c r="AQ8" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="127">
+      <c r="AR8" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS8" s="127">
+      <c r="AS8" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT8" s="127">
+      <c r="AT8" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU8" s="127">
+      <c r="AU8" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV8" s="127">
+      <c r="AV8" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW8" s="127">
+      <c r="AW8" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX8" s="127">
+      <c r="AX8" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY8" s="127">
+      <c r="AY8" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39057,7 +39006,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F9" s="101" t="str">
+      <c r="F9" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -39065,84 +39014,84 @@
       <c r="H9">
         <v>400</v>
       </c>
-      <c r="I9" s="124"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
-      <c r="AL9" s="127">
+      <c r="I9" s="123"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AL9" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM9" s="127">
+      <c r="AM9" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="127">
+      <c r="AN9" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="127">
+      <c r="AO9" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="127">
+      <c r="AP9" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="127">
+      <c r="AQ9" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="127">
+      <c r="AR9" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS9" s="127">
+      <c r="AS9" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT9" s="127">
+      <c r="AT9" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU9" s="127">
+      <c r="AU9" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV9" s="127">
+      <c r="AV9" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW9" s="127">
+      <c r="AW9" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX9" s="127">
+      <c r="AX9" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY9" s="127">
+      <c r="AY9" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39156,89 +39105,89 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="63"/>
       <c r="H10">
         <v>450</v>
       </c>
-      <c r="I10" s="124"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="107"/>
-      <c r="AL10" s="127">
+      <c r="I10" s="123"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AL10" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM10" s="127">
+      <c r="AM10" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="127">
+      <c r="AN10" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="127">
+      <c r="AO10" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="127">
+      <c r="AP10" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="127">
+      <c r="AQ10" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="127">
+      <c r="AR10" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="127">
+      <c r="AS10" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="127">
+      <c r="AT10" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="127">
+      <c r="AU10" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="127">
+      <c r="AV10" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW10" s="127">
+      <c r="AW10" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX10" s="127">
+      <c r="AX10" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY10" s="127">
+      <c r="AY10" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39252,89 +39201,89 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="63"/>
       <c r="H11">
         <v>500</v>
       </c>
-      <c r="I11" s="124"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AL11" s="127">
+      <c r="I11" s="123"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AL11" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="127">
+      <c r="AM11" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="127">
+      <c r="AN11" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="127">
+      <c r="AO11" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="127">
+      <c r="AP11" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="127">
+      <c r="AQ11" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="127">
+      <c r="AR11" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS11" s="127">
+      <c r="AS11" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT11" s="127">
+      <c r="AT11" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="127">
+      <c r="AU11" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV11" s="127">
+      <c r="AV11" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW11" s="127">
+      <c r="AW11" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX11" s="127">
+      <c r="AX11" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY11" s="127">
+      <c r="AY11" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39348,89 +39297,89 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="63"/>
       <c r="H12">
         <v>550</v>
       </c>
-      <c r="I12" s="124"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AL12" s="127">
+      <c r="I12" s="123"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AL12" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="127">
+      <c r="AM12" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="127">
+      <c r="AN12" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="127">
+      <c r="AO12" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="127">
+      <c r="AP12" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="127">
+      <c r="AQ12" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="127">
+      <c r="AR12" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="127">
+      <c r="AS12" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="127">
+      <c r="AT12" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="127">
+      <c r="AU12" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="127">
+      <c r="AV12" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW12" s="127">
+      <c r="AW12" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX12" s="127">
+      <c r="AX12" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY12" s="127">
+      <c r="AY12" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39444,89 +39393,89 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="63"/>
       <c r="H13">
         <v>600</v>
       </c>
-      <c r="I13" s="124"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AL13" s="127">
+      <c r="I13" s="123"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AL13" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="127">
+      <c r="AM13" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="127">
+      <c r="AN13" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="127">
+      <c r="AO13" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="127">
+      <c r="AP13" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="127">
+      <c r="AQ13" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="127">
+      <c r="AR13" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="127">
+      <c r="AS13" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="127">
+      <c r="AT13" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU13" s="127">
+      <c r="AU13" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV13" s="127">
+      <c r="AV13" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW13" s="127">
+      <c r="AW13" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX13" s="127">
+      <c r="AX13" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY13" s="127">
+      <c r="AY13" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39540,89 +39489,89 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="63"/>
       <c r="H14">
         <v>650</v>
       </c>
-      <c r="I14" s="124"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AL14" s="127">
+      <c r="I14" s="123"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AL14" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="127">
+      <c r="AM14" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="127">
+      <c r="AN14" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="127">
+      <c r="AO14" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="127">
+      <c r="AP14" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ14" s="127">
+      <c r="AQ14" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR14" s="127">
+      <c r="AR14" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS14" s="127">
+      <c r="AS14" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT14" s="127">
+      <c r="AT14" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU14" s="127">
+      <c r="AU14" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV14" s="127">
+      <c r="AV14" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW14" s="127">
+      <c r="AW14" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX14" s="127">
+      <c r="AX14" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY14" s="127">
+      <c r="AY14" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39636,7 +39585,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F15" s="101" t="str">
+      <c r="F15" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -39644,84 +39593,84 @@
       <c r="H15">
         <v>700</v>
       </c>
-      <c r="I15" s="124"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AL15" s="127">
+      <c r="I15" s="123"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+      <c r="AL15" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="127">
+      <c r="AM15" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="127">
+      <c r="AN15" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="127">
+      <c r="AO15" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="127">
+      <c r="AP15" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="127">
+      <c r="AQ15" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="127">
+      <c r="AR15" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="127">
+      <c r="AS15" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="127">
+      <c r="AT15" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU15" s="127">
+      <c r="AU15" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV15" s="127">
+      <c r="AV15" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="127">
+      <c r="AW15" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX15" s="127">
+      <c r="AX15" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY15" s="127">
+      <c r="AY15" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39735,7 +39684,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F16" s="101" t="str">
+      <c r="F16" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -39743,84 +39692,84 @@
       <c r="H16">
         <v>750</v>
       </c>
-      <c r="I16" s="124"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AL16" s="127">
+      <c r="I16" s="123"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AL16" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="127">
+      <c r="AM16" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="127">
+      <c r="AN16" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="127">
+      <c r="AO16" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="127">
+      <c r="AP16" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="127">
+      <c r="AQ16" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR16" s="127">
+      <c r="AR16" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="127">
+      <c r="AS16" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="127">
+      <c r="AT16" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU16" s="127">
+      <c r="AU16" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV16" s="127">
+      <c r="AV16" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW16" s="127">
+      <c r="AW16" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX16" s="127">
+      <c r="AX16" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY16" s="127">
+      <c r="AY16" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39834,7 +39783,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F17" s="101" t="str">
+      <c r="F17" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -39842,84 +39791,84 @@
       <c r="H17">
         <v>800</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AL17" s="127">
+      <c r="I17" s="123"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AL17" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="127">
+      <c r="AM17" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="127">
+      <c r="AN17" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="127">
+      <c r="AO17" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP17" s="127">
+      <c r="AP17" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="127">
+      <c r="AQ17" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="127">
+      <c r="AR17" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS17" s="127">
+      <c r="AS17" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="127">
+      <c r="AT17" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU17" s="127">
+      <c r="AU17" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV17" s="127">
+      <c r="AV17" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW17" s="127">
+      <c r="AW17" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX17" s="127">
+      <c r="AX17" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY17" s="127">
+      <c r="AY17" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39933,7 +39882,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F18" s="101" t="str">
+      <c r="F18" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -39941,84 +39890,84 @@
       <c r="H18">
         <v>850</v>
       </c>
-      <c r="I18" s="124"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AL18" s="127">
+      <c r="I18" s="123"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AL18" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="127">
+      <c r="AM18" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="127">
+      <c r="AN18" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="127">
+      <c r="AO18" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="127">
+      <c r="AP18" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="127">
+      <c r="AQ18" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR18" s="127">
+      <c r="AR18" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS18" s="127">
+      <c r="AS18" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT18" s="127">
+      <c r="AT18" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU18" s="127">
+      <c r="AU18" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV18" s="127">
+      <c r="AV18" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW18" s="127">
+      <c r="AW18" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX18" s="127">
+      <c r="AX18" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY18" s="127">
+      <c r="AY18" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40032,7 +39981,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F19" s="101" t="str">
+      <c r="F19" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40040,84 +39989,84 @@
       <c r="H19">
         <v>900</v>
       </c>
-      <c r="I19" s="124"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AL19" s="127">
+      <c r="I19" s="123"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
+      <c r="AL19" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="127">
+      <c r="AM19" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="127">
+      <c r="AN19" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="127">
+      <c r="AO19" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="127">
+      <c r="AP19" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="127">
+      <c r="AQ19" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="127">
+      <c r="AR19" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="127">
+      <c r="AS19" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="127">
+      <c r="AT19" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="127">
+      <c r="AU19" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV19" s="127">
+      <c r="AV19" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW19" s="127">
+      <c r="AW19" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX19" s="127">
+      <c r="AX19" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY19" s="127">
+      <c r="AY19" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40131,7 +40080,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F20" s="101" t="str">
+      <c r="F20" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40139,84 +40088,84 @@
       <c r="H20">
         <v>950</v>
       </c>
-      <c r="I20" s="124"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AL20" s="127">
+      <c r="I20" s="123"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AL20" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="127">
+      <c r="AM20" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="127">
+      <c r="AN20" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="127">
+      <c r="AO20" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="127">
+      <c r="AP20" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="127">
+      <c r="AQ20" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR20" s="127">
+      <c r="AR20" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS20" s="127">
+      <c r="AS20" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="127">
+      <c r="AT20" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="127">
+      <c r="AU20" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV20" s="127">
+      <c r="AV20" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="127">
+      <c r="AW20" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX20" s="127">
+      <c r="AX20" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY20" s="127">
+      <c r="AY20" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40230,7 +40179,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F21" s="101" t="str">
+      <c r="F21" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40238,84 +40187,84 @@
       <c r="H21">
         <v>1000</v>
       </c>
-      <c r="I21" s="124"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AL21" s="127">
+      <c r="I21" s="123"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AL21" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="127">
+      <c r="AM21" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="127">
+      <c r="AN21" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="127">
+      <c r="AO21" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="127">
+      <c r="AP21" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="127">
+      <c r="AQ21" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR21" s="127">
+      <c r="AR21" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS21" s="127">
+      <c r="AS21" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="127">
+      <c r="AT21" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU21" s="127">
+      <c r="AU21" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV21" s="127">
+      <c r="AV21" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW21" s="127">
+      <c r="AW21" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX21" s="127">
+      <c r="AX21" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY21" s="127">
+      <c r="AY21" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40329,7 +40278,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F22" s="101" t="str">
+      <c r="F22" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40337,84 +40286,84 @@
       <c r="H22">
         <v>1050</v>
       </c>
-      <c r="I22" s="124"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AL22" s="127">
+      <c r="I22" s="123"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AL22" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="127">
+      <c r="AM22" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="127">
+      <c r="AN22" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="127">
+      <c r="AO22" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="127">
+      <c r="AP22" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ22" s="127">
+      <c r="AQ22" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR22" s="127">
+      <c r="AR22" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS22" s="127">
+      <c r="AS22" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="127">
+      <c r="AT22" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="127">
+      <c r="AU22" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV22" s="127">
+      <c r="AV22" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW22" s="127">
+      <c r="AW22" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX22" s="127">
+      <c r="AX22" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY22" s="127">
+      <c r="AY22" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40428,7 +40377,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F23" s="101" t="str">
+      <c r="F23" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40436,84 +40385,84 @@
       <c r="H23">
         <v>1100</v>
       </c>
-      <c r="I23" s="124"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AL23" s="127">
+      <c r="I23" s="123"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+      <c r="AL23" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="127">
+      <c r="AM23" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="127">
+      <c r="AN23" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="127">
+      <c r="AO23" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="127">
+      <c r="AP23" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ23" s="127">
+      <c r="AQ23" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR23" s="127">
+      <c r="AR23" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS23" s="127">
+      <c r="AS23" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT23" s="127">
+      <c r="AT23" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU23" s="127">
+      <c r="AU23" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV23" s="127">
+      <c r="AV23" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW23" s="127">
+      <c r="AW23" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX23" s="127">
+      <c r="AX23" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY23" s="127">
+      <c r="AY23" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40527,7 +40476,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F24" s="101" t="str">
+      <c r="F24" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40535,84 +40484,84 @@
       <c r="H24">
         <v>1150</v>
       </c>
-      <c r="I24" s="124"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AL24" s="127">
+      <c r="I24" s="123"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AL24" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM24" s="127">
+      <c r="AM24" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="127">
+      <c r="AN24" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="127">
+      <c r="AO24" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="127">
+      <c r="AP24" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ24" s="127">
+      <c r="AQ24" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR24" s="127">
+      <c r="AR24" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS24" s="127">
+      <c r="AS24" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT24" s="127">
+      <c r="AT24" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU24" s="127">
+      <c r="AU24" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV24" s="127">
+      <c r="AV24" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW24" s="127">
+      <c r="AW24" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX24" s="127">
+      <c r="AX24" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY24" s="127">
+      <c r="AY24" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40626,7 +40575,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F25" s="101" t="str">
+      <c r="F25" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40634,84 +40583,84 @@
       <c r="H25">
         <v>1200</v>
       </c>
-      <c r="I25" s="124"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AL25" s="127">
+      <c r="I25" s="123"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AL25" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM25" s="127">
+      <c r="AM25" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="127">
+      <c r="AN25" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="127">
+      <c r="AO25" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="127">
+      <c r="AP25" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="127">
+      <c r="AQ25" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR25" s="127">
+      <c r="AR25" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS25" s="127">
+      <c r="AS25" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="127">
+      <c r="AT25" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU25" s="127">
+      <c r="AU25" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV25" s="127">
+      <c r="AV25" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW25" s="127">
+      <c r="AW25" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX25" s="127">
+      <c r="AX25" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY25" s="127">
+      <c r="AY25" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40725,7 +40674,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F26" s="101" t="str">
+      <c r="F26" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40733,84 +40682,84 @@
       <c r="H26">
         <v>1250</v>
       </c>
-      <c r="I26" s="124"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="107"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AL26" s="127">
+      <c r="I26" s="123"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AL26" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM26" s="127">
+      <c r="AM26" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="127">
+      <c r="AN26" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="127">
+      <c r="AO26" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="127">
+      <c r="AP26" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="127">
+      <c r="AQ26" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR26" s="127">
+      <c r="AR26" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS26" s="127">
+      <c r="AS26" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="127">
+      <c r="AT26" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU26" s="127">
+      <c r="AU26" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV26" s="127">
+      <c r="AV26" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW26" s="127">
+      <c r="AW26" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX26" s="127">
+      <c r="AX26" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY26" s="127">
+      <c r="AY26" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40824,7 +40773,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F27" s="101" t="str">
+      <c r="F27" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40832,84 +40781,84 @@
       <c r="H27">
         <v>1300</v>
       </c>
-      <c r="I27" s="124"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="107"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="107"/>
-      <c r="AL27" s="127">
+      <c r="I27" s="123"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AL27" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM27" s="127">
+      <c r="AM27" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="127">
+      <c r="AN27" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="127">
+      <c r="AO27" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="127">
+      <c r="AP27" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ27" s="127">
+      <c r="AQ27" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR27" s="127">
+      <c r="AR27" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS27" s="127">
+      <c r="AS27" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT27" s="127">
+      <c r="AT27" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="127">
+      <c r="AU27" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV27" s="127">
+      <c r="AV27" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW27" s="127">
+      <c r="AW27" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX27" s="127">
+      <c r="AX27" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY27" s="127">
+      <c r="AY27" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -40923,7 +40872,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F28" s="101" t="str">
+      <c r="F28" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -40931,84 +40880,84 @@
       <c r="H28">
         <v>1350</v>
       </c>
-      <c r="I28" s="124"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
-      <c r="AL28" s="127">
+      <c r="I28" s="123"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
+      <c r="AL28" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM28" s="127">
+      <c r="AM28" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="127">
+      <c r="AN28" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="127">
+      <c r="AO28" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="127">
+      <c r="AP28" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="127">
+      <c r="AQ28" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR28" s="127">
+      <c r="AR28" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS28" s="127">
+      <c r="AS28" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT28" s="127">
+      <c r="AT28" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU28" s="127">
+      <c r="AU28" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV28" s="127">
+      <c r="AV28" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW28" s="127">
+      <c r="AW28" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX28" s="127">
+      <c r="AX28" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY28" s="127">
+      <c r="AY28" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -41022,7 +40971,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F29" s="101" t="str">
+      <c r="F29" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -41030,84 +40979,84 @@
       <c r="H29">
         <v>1400</v>
       </c>
-      <c r="I29" s="124"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AL29" s="127">
+      <c r="I29" s="123"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AL29" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="127">
+      <c r="AM29" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="127">
+      <c r="AN29" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="127">
+      <c r="AO29" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP29" s="127">
+      <c r="AP29" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="127">
+      <c r="AQ29" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR29" s="127">
+      <c r="AR29" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS29" s="127">
+      <c r="AS29" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT29" s="127">
+      <c r="AT29" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU29" s="127">
+      <c r="AU29" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV29" s="127">
+      <c r="AV29" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW29" s="127">
+      <c r="AW29" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX29" s="127">
+      <c r="AX29" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY29" s="127">
+      <c r="AY29" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -41121,7 +41070,7 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F30" s="101" t="str">
+      <c r="F30" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
@@ -41129,84 +41078,84 @@
       <c r="H30">
         <v>1450</v>
       </c>
-      <c r="I30" s="124"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="107"/>
-      <c r="AA30" s="107"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AL30" s="127">
+      <c r="I30" s="123"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AL30" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="127">
+      <c r="AM30" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="127">
+      <c r="AN30" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO30" s="127">
+      <c r="AO30" s="126">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP30" s="127">
+      <c r="AP30" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="127">
+      <c r="AQ30" s="126">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR30" s="127">
+      <c r="AR30" s="126">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS30" s="127">
+      <c r="AS30" s="126">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT30" s="127">
+      <c r="AT30" s="126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU30" s="127">
+      <c r="AU30" s="126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV30" s="127">
+      <c r="AV30" s="126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW30" s="127">
+      <c r="AW30" s="126">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX30" s="127">
+      <c r="AX30" s="126">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AY30" s="127">
+      <c r="AY30" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -41220,14 +41169,14 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F31" s="101" t="str">
+      <c r="F31" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
-      <c r="H31" s="108" t="s">
+      <c r="H31" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="109" t="str" cm="1">
+      <c r="I31" s="108" t="str" cm="1">
         <f t="array" ref="I31">IFERROR(_xlfn.LET(
             _xlpm.raw, I$3:I$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41240,7 +41189,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="J31" s="109" t="str" cm="1">
+      <c r="J31" s="108" t="str" cm="1">
         <f t="array" ref="J31">IFERROR(_xlfn.LET(
             _xlpm.raw, J$3:J$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41253,7 +41202,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="K31" s="109" t="str" cm="1">
+      <c r="K31" s="108" t="str" cm="1">
         <f t="array" ref="K31">IFERROR(_xlfn.LET(
             _xlpm.raw, K$3:K$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41266,7 +41215,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="L31" s="109" t="str" cm="1">
+      <c r="L31" s="108" t="str" cm="1">
         <f t="array" ref="L31">IFERROR(_xlfn.LET(
             _xlpm.raw, L$3:L$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41279,7 +41228,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="M31" s="109" t="str" cm="1">
+      <c r="M31" s="108" t="str" cm="1">
         <f t="array" ref="M31">IFERROR(_xlfn.LET(
             _xlpm.raw, M$3:M$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41292,7 +41241,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="N31" s="109" t="str" cm="1">
+      <c r="N31" s="108" t="str" cm="1">
         <f t="array" ref="N31">IFERROR(_xlfn.LET(
             _xlpm.raw, N$3:N$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41305,7 +41254,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="O31" s="109" t="str" cm="1">
+      <c r="O31" s="108" t="str" cm="1">
         <f t="array" ref="O31">IFERROR(_xlfn.LET(
             _xlpm.raw, O$3:O$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41318,7 +41267,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="P31" s="109" t="str" cm="1">
+      <c r="P31" s="108" t="str" cm="1">
         <f t="array" ref="P31">IFERROR(_xlfn.LET(
             _xlpm.raw, P$3:P$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41331,7 +41280,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Q31" s="109" t="str" cm="1">
+      <c r="Q31" s="108" t="str" cm="1">
         <f t="array" ref="Q31">IFERROR(_xlfn.LET(
             _xlpm.raw, Q$3:Q$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41344,7 +41293,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="R31" s="109" t="str" cm="1">
+      <c r="R31" s="108" t="str" cm="1">
         <f t="array" ref="R31">IFERROR(_xlfn.LET(
             _xlpm.raw, R$3:R$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41357,7 +41306,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="S31" s="109" t="str" cm="1">
+      <c r="S31" s="108" t="str" cm="1">
         <f t="array" ref="S31">IFERROR(_xlfn.LET(
             _xlpm.raw, S$3:S$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41370,7 +41319,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="T31" s="109" t="str" cm="1">
+      <c r="T31" s="108" t="str" cm="1">
         <f t="array" ref="T31">IFERROR(_xlfn.LET(
             _xlpm.raw, T$3:T$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41383,7 +41332,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="U31" s="109" t="str" cm="1">
+      <c r="U31" s="108" t="str" cm="1">
         <f t="array" ref="U31">IFERROR(_xlfn.LET(
             _xlpm.raw, U$3:U$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41396,7 +41345,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="V31" s="109" t="str" cm="1">
+      <c r="V31" s="108" t="str" cm="1">
         <f t="array" ref="V31">IFERROR(_xlfn.LET(
             _xlpm.raw, V$3:V$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41409,7 +41358,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="W31" s="109" t="str" cm="1">
+      <c r="W31" s="108" t="str" cm="1">
         <f t="array" ref="W31">IFERROR(_xlfn.LET(
             _xlpm.raw, W$3:W$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41422,7 +41371,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="X31" s="109" t="str" cm="1">
+      <c r="X31" s="108" t="str" cm="1">
         <f t="array" ref="X31">IFERROR(_xlfn.LET(
             _xlpm.raw, X$3:X$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41435,7 +41384,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Y31" s="109" t="str" cm="1">
+      <c r="Y31" s="108" t="str" cm="1">
         <f t="array" ref="Y31">IFERROR(_xlfn.LET(
             _xlpm.raw, Y$3:Y$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41448,7 +41397,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Z31" s="109" t="str" cm="1">
+      <c r="Z31" s="108" t="str" cm="1">
         <f t="array" ref="Z31">IFERROR(_xlfn.LET(
             _xlpm.raw, Z$3:Z$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41461,7 +41410,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AA31" s="109" t="str" cm="1">
+      <c r="AA31" s="108" t="str" cm="1">
         <f t="array" ref="AA31">IFERROR(_xlfn.LET(
             _xlpm.raw, AA$3:AA$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41474,7 +41423,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AB31" s="109" t="str" cm="1">
+      <c r="AB31" s="108" t="str" cm="1">
         <f t="array" ref="AB31">IFERROR(_xlfn.LET(
             _xlpm.raw, AB$3:AB$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41487,7 +41436,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AC31" s="109" t="str" cm="1">
+      <c r="AC31" s="108" t="str" cm="1">
         <f t="array" ref="AC31">IFERROR(_xlfn.LET(
             _xlpm.raw, AC$3:AC$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41500,7 +41449,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AD31" s="109" t="str" cm="1">
+      <c r="AD31" s="108" t="str" cm="1">
         <f t="array" ref="AD31">IFERROR(_xlfn.LET(
             _xlpm.raw, AD$3:AD$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41513,7 +41462,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AE31" s="109" t="str" cm="1">
+      <c r="AE31" s="108" t="str" cm="1">
         <f t="array" ref="AE31">IFERROR(_xlfn.LET(
             _xlpm.raw, AE$3:AE$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41526,7 +41475,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AF31" s="109" t="str" cm="1">
+      <c r="AF31" s="108" t="str" cm="1">
         <f t="array" ref="AF31">IFERROR(_xlfn.LET(
             _xlpm.raw, AF$3:AF$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41539,7 +41488,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AG31" s="109" t="str" cm="1">
+      <c r="AG31" s="108" t="str" cm="1">
         <f t="array" ref="AG31">IFERROR(_xlfn.LET(
             _xlpm.raw, AG$3:AG$30,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -41563,14 +41512,14 @@
         <f>_xlfn.CONCAT(TV_Targets[[#This Row],[GENDER]]," ",TV_Targets[[#This Row],[MIN. AGE]]," - ",TV_Targets[[#This Row],[MAX. AGE]]," ",TV_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="F32" s="101" t="str">
+      <c r="F32" s="100" t="str">
         <f>IFERROR(INDEX($I$31:$U$31,MATCH(TV_Targets[[#This Row],[FINAL]],$I$1:$V$1,0)),"")</f>
         <v/>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="I32" s="110" t="str" cm="1">
+      <c r="I32" s="109" t="str" cm="1">
         <f t="array" ref="I32">IFERROR(_xlfn.LET(
             _xlpm.raw, I3:I30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41586,7 +41535,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="J32" s="110" t="str" cm="1">
+      <c r="J32" s="109" t="str" cm="1">
         <f t="array" ref="J32">IFERROR(_xlfn.LET(
             _xlpm.raw, J3:J30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41602,7 +41551,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="K32" s="110" t="str" cm="1">
+      <c r="K32" s="109" t="str" cm="1">
         <f t="array" ref="K32">IFERROR(_xlfn.LET(
             _xlpm.raw, K3:K30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41618,7 +41567,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="L32" s="110" t="str" cm="1">
+      <c r="L32" s="109" t="str" cm="1">
         <f t="array" ref="L32">IFERROR(_xlfn.LET(
             _xlpm.raw, L3:L30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41634,7 +41583,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="M32" s="110" t="str" cm="1">
+      <c r="M32" s="109" t="str" cm="1">
         <f t="array" ref="M32">IFERROR(_xlfn.LET(
             _xlpm.raw, M3:M30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41650,7 +41599,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="N32" s="110" t="str" cm="1">
+      <c r="N32" s="109" t="str" cm="1">
         <f t="array" ref="N32">IFERROR(_xlfn.LET(
             _xlpm.raw, N3:N30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41666,7 +41615,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="O32" s="110" t="str" cm="1">
+      <c r="O32" s="109" t="str" cm="1">
         <f t="array" ref="O32">IFERROR(_xlfn.LET(
             _xlpm.raw, O3:O30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41682,7 +41631,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="P32" s="110" t="str" cm="1">
+      <c r="P32" s="109" t="str" cm="1">
         <f t="array" ref="P32">IFERROR(_xlfn.LET(
             _xlpm.raw, P3:P30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41698,7 +41647,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Q32" s="110" t="str" cm="1">
+      <c r="Q32" s="109" t="str" cm="1">
         <f t="array" ref="Q32">IFERROR(_xlfn.LET(
             _xlpm.raw, Q3:Q30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41714,7 +41663,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="R32" s="110" t="str" cm="1">
+      <c r="R32" s="109" t="str" cm="1">
         <f t="array" ref="R32">IFERROR(_xlfn.LET(
             _xlpm.raw, R3:R30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41730,7 +41679,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="S32" s="110" t="str" cm="1">
+      <c r="S32" s="109" t="str" cm="1">
         <f t="array" ref="S32">IFERROR(_xlfn.LET(
             _xlpm.raw, S3:S30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41746,7 +41695,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="T32" s="110" t="str" cm="1">
+      <c r="T32" s="109" t="str" cm="1">
         <f t="array" ref="T32">IFERROR(_xlfn.LET(
             _xlpm.raw, T3:T30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41762,7 +41711,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="U32" s="110" t="str" cm="1">
+      <c r="U32" s="109" t="str" cm="1">
         <f t="array" ref="U32">IFERROR(_xlfn.LET(
             _xlpm.raw, U3:U30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41778,7 +41727,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="V32" s="110" t="str" cm="1">
+      <c r="V32" s="109" t="str" cm="1">
         <f t="array" ref="V32">IFERROR(_xlfn.LET(
             _xlpm.raw, V3:V30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41794,7 +41743,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="W32" s="110" t="str" cm="1">
+      <c r="W32" s="109" t="str" cm="1">
         <f t="array" ref="W32">IFERROR(_xlfn.LET(
             _xlpm.raw, W3:W30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41810,7 +41759,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="X32" s="110" t="str" cm="1">
+      <c r="X32" s="109" t="str" cm="1">
         <f t="array" ref="X32">IFERROR(_xlfn.LET(
             _xlpm.raw, X3:X30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41826,7 +41775,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Y32" s="110" t="str" cm="1">
+      <c r="Y32" s="109" t="str" cm="1">
         <f t="array" ref="Y32">IFERROR(_xlfn.LET(
             _xlpm.raw, Y3:Y30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41842,7 +41791,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Z32" s="110" t="str" cm="1">
+      <c r="Z32" s="109" t="str" cm="1">
         <f t="array" ref="Z32">IFERROR(_xlfn.LET(
             _xlpm.raw, Z3:Z30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41858,7 +41807,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AA32" s="110" t="str" cm="1">
+      <c r="AA32" s="109" t="str" cm="1">
         <f t="array" ref="AA32">IFERROR(_xlfn.LET(
             _xlpm.raw, AA3:AA30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41874,7 +41823,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AB32" s="110" t="str" cm="1">
+      <c r="AB32" s="109" t="str" cm="1">
         <f t="array" ref="AB32">IFERROR(_xlfn.LET(
             _xlpm.raw, AB3:AB30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41890,7 +41839,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AC32" s="110" t="str" cm="1">
+      <c r="AC32" s="109" t="str" cm="1">
         <f t="array" ref="AC32">IFERROR(_xlfn.LET(
             _xlpm.raw, AC3:AC30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41906,7 +41855,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AD32" s="110" t="str" cm="1">
+      <c r="AD32" s="109" t="str" cm="1">
         <f t="array" ref="AD32">IFERROR(_xlfn.LET(
             _xlpm.raw, AD3:AD30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41922,7 +41871,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AE32" s="110" t="str" cm="1">
+      <c r="AE32" s="109" t="str" cm="1">
         <f t="array" ref="AE32">IFERROR(_xlfn.LET(
             _xlpm.raw, AE3:AE30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41938,7 +41887,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AF32" s="110" t="str" cm="1">
+      <c r="AF32" s="109" t="str" cm="1">
         <f t="array" ref="AF32">IFERROR(_xlfn.LET(
             _xlpm.raw, AF3:AF30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -41954,7 +41903,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="AG32" s="110" t="str" cm="1">
+      <c r="AG32" s="109" t="str" cm="1">
         <f t="array" ref="AG32">IFERROR(_xlfn.LET(
             _xlpm.raw, AG3:AG30,
             _xlpm.trpsRaw, $H$3:$H$30,
@@ -42026,102 +41975,102 @@
   <sheetData>
     <row r="1" spans="2:45" ht="21" customHeight="1"/>
     <row r="2" spans="2:45">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="99"/>
-      <c r="K2" s="102" t="str" cm="1">
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="98"/>
+      <c r="K2" s="101" t="str" cm="1">
         <f t="array" ref="K2">TRANSPOSE(_xlfn.UNIQUE(Digital_Targets[FINAL]))</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
       <c r="Y2" s="62"/>
       <c r="Z2" s="62"/>
       <c r="AA2" s="62"/>
     </row>
     <row r="3" spans="2:45">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100" t="s">
+      <c r="H3" s="98"/>
+      <c r="I3" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="104" t="s">
+      <c r="M3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="104" t="s">
+      <c r="T3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="104" t="s">
+      <c r="U3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="104" t="s">
+      <c r="V3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="104" t="s">
+      <c r="W3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="104" t="s">
+      <c r="X3" s="103" t="s">
         <v>40</v>
       </c>
       <c r="Y3" s="62"/>
@@ -42137,40 +42086,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G4" s="101" t="str">
+      <c r="G4" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H4" s="63"/>
-      <c r="I4" s="112">
+      <c r="I4" s="111">
         <v>500000</v>
       </c>
-      <c r="J4" s="113">
+      <c r="J4" s="112">
         <v>1.5</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="AQ4" s="127">
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="AQ4" s="126">
         <f>IF(K4=K$32,K4,NA())</f>
         <v>0</v>
       </c>
-      <c r="AR4" s="127">
+      <c r="AR4" s="126">
         <f>IF(L4=L$32,L4,NA())</f>
         <v>0</v>
       </c>
-      <c r="AS4" s="127">
+      <c r="AS4" s="126">
         <f>IF(M4=M$32,M4,NA())</f>
         <v>0</v>
       </c>
@@ -42184,40 +42133,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G5" s="101" t="str">
+      <c r="G5" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H5" s="63"/>
-      <c r="I5" s="112">
+      <c r="I5" s="111">
         <v>1000000</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="112">
         <v>1.7</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="AQ5" s="127">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="AQ5" s="126">
         <f t="shared" ref="AQ5:AS31" si="0">IF(K5=K$32,K5,NA())</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="127">
+      <c r="AR5" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="127">
+      <c r="AS5" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42231,40 +42180,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G6" s="101" t="str">
+      <c r="G6" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H6" s="63"/>
-      <c r="I6" s="112">
+      <c r="I6" s="111">
         <v>1500000</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="112">
         <v>2</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="AQ6" s="127">
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="AQ6" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR6" s="127">
+      <c r="AR6" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="127">
+      <c r="AS6" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42278,40 +42227,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G7" s="101" t="str">
+      <c r="G7" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H7" s="63"/>
-      <c r="I7" s="112">
+      <c r="I7" s="111">
         <v>2000000</v>
       </c>
-      <c r="J7" s="113">
+      <c r="J7" s="112">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="AQ7" s="127">
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="AQ7" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR7" s="127">
+      <c r="AR7" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="127">
+      <c r="AS7" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42325,40 +42274,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G8" s="101" t="str">
+      <c r="G8" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H8" s="63"/>
-      <c r="I8" s="112">
+      <c r="I8" s="111">
         <v>2500000</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="112">
         <v>2.6</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="AQ8" s="127">
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="AQ8" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="127">
+      <c r="AR8" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS8" s="127">
+      <c r="AS8" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42372,40 +42321,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G9" s="101" t="str">
+      <c r="G9" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H9" s="63"/>
-      <c r="I9" s="112">
+      <c r="I9" s="111">
         <v>3000000</v>
       </c>
-      <c r="J9" s="113">
+      <c r="J9" s="112">
         <v>2.9</v>
       </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="AQ9" s="127">
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="AQ9" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="127">
+      <c r="AR9" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS9" s="127">
+      <c r="AS9" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42419,40 +42368,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G10" s="101" t="str">
+      <c r="G10" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H10" s="63"/>
-      <c r="I10" s="112">
+      <c r="I10" s="111">
         <v>3500000</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="112">
         <v>3.2</v>
       </c>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="AQ10" s="127">
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="AQ10" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="127">
+      <c r="AR10" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="127">
+      <c r="AS10" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42466,40 +42415,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G11" s="101" t="str">
+      <c r="G11" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H11" s="63"/>
-      <c r="I11" s="112">
+      <c r="I11" s="111">
         <v>4000000</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="112">
         <v>3.5</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="AQ11" s="127">
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="AQ11" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="127">
+      <c r="AR11" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS11" s="127">
+      <c r="AS11" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42513,40 +42462,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G12" s="101" t="str">
+      <c r="G12" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H12" s="63"/>
-      <c r="I12" s="112">
+      <c r="I12" s="111">
         <v>4500000</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="112">
         <v>3.8</v>
       </c>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="AQ12" s="127">
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="AQ12" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="127">
+      <c r="AR12" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="127">
+      <c r="AS12" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42560,40 +42509,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G13" s="101" t="str">
+      <c r="G13" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H13" s="63"/>
-      <c r="I13" s="112">
+      <c r="I13" s="111">
         <v>5000000</v>
       </c>
-      <c r="J13" s="113">
+      <c r="J13" s="112">
         <v>4.5</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="AQ13" s="127">
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="AQ13" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="127">
+      <c r="AR13" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="127">
+      <c r="AS13" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42607,40 +42556,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G14" s="101" t="str">
+      <c r="G14" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H14" s="63"/>
-      <c r="I14" s="112">
+      <c r="I14" s="111">
         <v>5500000</v>
       </c>
-      <c r="J14" s="113">
+      <c r="J14" s="112">
         <v>4.8</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="AQ14" s="127">
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="AQ14" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR14" s="127">
+      <c r="AR14" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS14" s="127">
+      <c r="AS14" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42654,40 +42603,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G15" s="101" t="str">
+      <c r="G15" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H15" s="63"/>
-      <c r="I15" s="112">
+      <c r="I15" s="111">
         <v>6000000</v>
       </c>
-      <c r="J15" s="114">
+      <c r="J15" s="113">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="AQ15" s="127">
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="AQ15" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="127">
+      <c r="AR15" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="127">
+      <c r="AS15" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42701,40 +42650,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G16" s="101" t="str">
+      <c r="G16" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H16" s="63"/>
-      <c r="I16" s="112">
+      <c r="I16" s="111">
         <v>6500000</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="112">
         <v>5.4</v>
       </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="AQ16" s="127">
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="AQ16" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR16" s="127">
+      <c r="AR16" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="127">
+      <c r="AS16" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42748,40 +42697,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G17" s="101" t="str">
+      <c r="G17" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H17" s="63"/>
-      <c r="I17" s="112">
+      <c r="I17" s="111">
         <v>7000000</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="112">
         <v>5.8</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="AQ17" s="127">
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="AQ17" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="127">
+      <c r="AR17" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS17" s="127">
+      <c r="AS17" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42795,40 +42744,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G18" s="101" t="str">
+      <c r="G18" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H18" s="63"/>
-      <c r="I18" s="112">
+      <c r="I18" s="111">
         <v>7500000</v>
       </c>
-      <c r="J18" s="113">
+      <c r="J18" s="112">
         <v>6.1</v>
       </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="AQ18" s="127">
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="AQ18" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR18" s="127">
+      <c r="AR18" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS18" s="127">
+      <c r="AS18" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42842,40 +42791,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G19" s="101" t="str">
+      <c r="G19" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H19" s="63"/>
-      <c r="I19" s="112">
+      <c r="I19" s="111">
         <v>8000000</v>
       </c>
-      <c r="J19" s="113">
+      <c r="J19" s="112">
         <v>6.4</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="AQ19" s="127">
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="AQ19" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="127">
+      <c r="AR19" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="127">
+      <c r="AS19" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42889,40 +42838,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G20" s="101" t="str">
+      <c r="G20" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H20" s="63"/>
-      <c r="I20" s="112">
+      <c r="I20" s="111">
         <v>8500000</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="112">
         <v>6.7</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="AQ20" s="127">
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="AQ20" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR20" s="127">
+      <c r="AR20" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS20" s="127">
+      <c r="AS20" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42936,40 +42885,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G21" s="101" t="str">
+      <c r="G21" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H21" s="63"/>
-      <c r="I21" s="112">
+      <c r="I21" s="111">
         <v>9000000</v>
       </c>
-      <c r="J21" s="113">
+      <c r="J21" s="112">
         <v>7.1</v>
       </c>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="AQ21" s="127">
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="AQ21" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR21" s="127">
+      <c r="AR21" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS21" s="127">
+      <c r="AS21" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42983,40 +42932,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G22" s="101" t="str">
+      <c r="G22" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H22" s="63"/>
-      <c r="I22" s="112">
+      <c r="I22" s="111">
         <v>9500000</v>
       </c>
-      <c r="J22" s="113">
+      <c r="J22" s="112">
         <v>7.4</v>
       </c>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="AQ22" s="127">
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="AQ22" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR22" s="127">
+      <c r="AR22" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS22" s="127">
+      <c r="AS22" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43030,40 +42979,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G23" s="101" t="str">
+      <c r="G23" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H23" s="63"/>
-      <c r="I23" s="112">
+      <c r="I23" s="111">
         <v>10000000</v>
       </c>
-      <c r="J23" s="113">
+      <c r="J23" s="112">
         <v>7.7561403508772004</v>
       </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="AQ23" s="127">
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="AQ23" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR23" s="127">
+      <c r="AR23" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS23" s="127">
+      <c r="AS23" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43077,40 +43026,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G24" s="101" t="str">
+      <c r="G24" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H24" s="63"/>
-      <c r="I24" s="112">
+      <c r="I24" s="111">
         <v>10500000</v>
       </c>
-      <c r="J24" s="113">
+      <c r="J24" s="112">
         <v>8.09596491228071</v>
       </c>
-      <c r="K24" s="105"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="AQ24" s="127">
+      <c r="K24" s="104"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="AQ24" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR24" s="127">
+      <c r="AR24" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS24" s="127">
+      <c r="AS24" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43124,40 +43073,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G25" s="101" t="str">
+      <c r="G25" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H25" s="63"/>
-      <c r="I25" s="112">
+      <c r="I25" s="111">
         <v>11000000</v>
       </c>
-      <c r="J25" s="113">
+      <c r="J25" s="112">
         <v>8.4357894736842205</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="AQ25" s="127">
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="AQ25" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR25" s="127">
+      <c r="AR25" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS25" s="127">
+      <c r="AS25" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43171,40 +43120,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G26" s="101" t="str">
+      <c r="G26" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H26" s="63"/>
-      <c r="I26" s="112">
+      <c r="I26" s="111">
         <v>11500000</v>
       </c>
-      <c r="J26" s="113">
+      <c r="J26" s="112">
         <v>8.7756140350877203</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="AQ26" s="127">
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="AQ26" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR26" s="127">
+      <c r="AR26" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS26" s="127">
+      <c r="AS26" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43218,40 +43167,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G27" s="101" t="str">
+      <c r="G27" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H27" s="63"/>
-      <c r="I27" s="112">
+      <c r="I27" s="111">
         <v>12000000</v>
       </c>
-      <c r="J27" s="113">
+      <c r="J27" s="112">
         <v>9.1154385964912308</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="AQ27" s="127">
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="AQ27" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR27" s="127">
+      <c r="AR27" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS27" s="127">
+      <c r="AS27" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43265,40 +43214,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G28" s="101" t="str">
+      <c r="G28" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H28" s="63"/>
-      <c r="I28" s="112">
+      <c r="I28" s="111">
         <v>12500000</v>
       </c>
-      <c r="J28" s="113">
+      <c r="J28" s="112">
         <v>9.4552631578947395</v>
       </c>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="AQ28" s="127">
+      <c r="K28" s="104"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="AQ28" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR28" s="127">
+      <c r="AR28" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS28" s="127">
+      <c r="AS28" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43312,40 +43261,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G29" s="101" t="str">
+      <c r="G29" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H29" s="63"/>
-      <c r="I29" s="112">
+      <c r="I29" s="111">
         <v>13000000</v>
       </c>
-      <c r="J29" s="113">
+      <c r="J29" s="112">
         <v>9.7950877192982393</v>
       </c>
-      <c r="K29" s="105"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="AQ29" s="127">
+      <c r="K29" s="104"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="AQ29" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR29" s="127">
+      <c r="AR29" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS29" s="127">
+      <c r="AS29" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43359,40 +43308,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G30" s="101" t="str">
+      <c r="G30" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H30" s="63"/>
-      <c r="I30" s="112">
+      <c r="I30" s="111">
         <v>13500000</v>
       </c>
-      <c r="J30" s="113">
+      <c r="J30" s="112">
         <v>10.1349122807018</v>
       </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-      <c r="AQ30" s="127">
+      <c r="K30" s="104"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="AQ30" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR30" s="127">
+      <c r="AR30" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS30" s="127">
+      <c r="AS30" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43406,40 +43355,40 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G31" s="101" t="str">
+      <c r="G31" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
       <c r="H31" s="63"/>
-      <c r="I31" s="112">
+      <c r="I31" s="111">
         <v>14000000</v>
       </c>
-      <c r="J31" s="113">
+      <c r="J31" s="112">
         <v>10.474736842105299</v>
       </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="AQ31" s="127">
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="AQ31" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR31" s="127">
+      <c r="AR31" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS31" s="127">
+      <c r="AS31" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43453,15 +43402,15 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G32" s="101" t="str">
+      <c r="G32" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
-      <c r="I32" s="108" t="s">
+      <c r="I32" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="108"/>
-      <c r="K32" s="109" t="str" cm="1">
+      <c r="J32" s="107"/>
+      <c r="K32" s="108" t="str" cm="1">
         <f t="array" ref="K32">IFERROR(_xlfn.LET(
             _xlpm.raw, K$4:K$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43474,7 +43423,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="L32" s="109" t="str" cm="1">
+      <c r="L32" s="108" t="str" cm="1">
         <f t="array" ref="L32">IFERROR(_xlfn.LET(
             _xlpm.raw, L$4:L$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43487,7 +43436,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="M32" s="109" t="str" cm="1">
+      <c r="M32" s="108" t="str" cm="1">
         <f t="array" ref="M32">IFERROR(_xlfn.LET(
             _xlpm.raw, M$4:M$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43500,7 +43449,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="N32" s="109" t="str" cm="1">
+      <c r="N32" s="108" t="str" cm="1">
         <f t="array" ref="N32">IFERROR(_xlfn.LET(
             _xlpm.raw, N$4:N$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43513,7 +43462,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="O32" s="109" t="str" cm="1">
+      <c r="O32" s="108" t="str" cm="1">
         <f t="array" ref="O32">IFERROR(_xlfn.LET(
             _xlpm.raw, O$4:O$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43526,7 +43475,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="P32" s="109" t="str" cm="1">
+      <c r="P32" s="108" t="str" cm="1">
         <f t="array" ref="P32">IFERROR(_xlfn.LET(
             _xlpm.raw, P$4:P$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43539,7 +43488,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Q32" s="109" t="str" cm="1">
+      <c r="Q32" s="108" t="str" cm="1">
         <f t="array" ref="Q32">IFERROR(_xlfn.LET(
             _xlpm.raw, Q$4:Q$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43552,7 +43501,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="R32" s="109" t="str" cm="1">
+      <c r="R32" s="108" t="str" cm="1">
         <f t="array" ref="R32">IFERROR(_xlfn.LET(
             _xlpm.raw, R$4:R$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43565,7 +43514,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="S32" s="109" t="str" cm="1">
+      <c r="S32" s="108" t="str" cm="1">
         <f t="array" ref="S32">IFERROR(_xlfn.LET(
             _xlpm.raw, S$4:S$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43578,7 +43527,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="T32" s="109" t="str" cm="1">
+      <c r="T32" s="108" t="str" cm="1">
         <f t="array" ref="T32">IFERROR(_xlfn.LET(
             _xlpm.raw, T$4:T$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43591,7 +43540,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="U32" s="109" t="str" cm="1">
+      <c r="U32" s="108" t="str" cm="1">
         <f t="array" ref="U32">IFERROR(_xlfn.LET(
             _xlpm.raw, U$4:U$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43604,7 +43553,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="V32" s="109" t="str" cm="1">
+      <c r="V32" s="108" t="str" cm="1">
         <f t="array" ref="V32">IFERROR(_xlfn.LET(
             _xlpm.raw, V$4:V$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43617,7 +43566,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="W32" s="109" t="str" cm="1">
+      <c r="W32" s="108" t="str" cm="1">
         <f t="array" ref="W32">IFERROR(_xlfn.LET(
             _xlpm.raw, W$4:W$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43630,7 +43579,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="X32" s="109" t="str" cm="1">
+      <c r="X32" s="108" t="str" cm="1">
         <f t="array" ref="X32">IFERROR(_xlfn.LET(
             _xlpm.raw, X$4:X$31,
             _xlpm.data, _xlfn._xlws.FILTER(_xlpm.raw, ISNUMBER(_xlpm.raw)),
@@ -43654,15 +43603,15 @@
         <f>_xlfn.CONCAT(Digital_Targets[[#This Row],[GENDER]]," ",Digital_Targets[[#This Row],[MIN. AGE]]," - ",Digital_Targets[[#This Row],[MAX. AGE]]," ",Digital_Targets[[#This Row],[SEL]])</f>
         <v xml:space="preserve">  -  </v>
       </c>
-      <c r="G33" s="101" t="str">
+      <c r="G33" s="100" t="str">
         <f>IFERROR(INDEX($K$32:$W$32,MATCH(Digital_Targets[[#This Row],[FINAL]],$K$2:$X$2,0)),"")</f>
         <v/>
       </c>
-      <c r="I33" s="108" t="s">
+      <c r="I33" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="J33" s="108"/>
-      <c r="K33" s="111" t="str" cm="1">
+      <c r="J33" s="107"/>
+      <c r="K33" s="110" t="str" cm="1">
         <f t="array" ref="K33">IFERROR(_xlfn.LET(
             _xlpm.raw, K4:K31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43678,7 +43627,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="L33" s="111" t="str" cm="1">
+      <c r="L33" s="110" t="str" cm="1">
         <f t="array" ref="L33">IFERROR(_xlfn.LET(
             _xlpm.raw, L4:L31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43694,7 +43643,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="M33" s="111" t="str" cm="1">
+      <c r="M33" s="110" t="str" cm="1">
         <f t="array" ref="M33">IFERROR(_xlfn.LET(
             _xlpm.raw, M4:M31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43710,7 +43659,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="N33" s="111" t="str" cm="1">
+      <c r="N33" s="110" t="str" cm="1">
         <f t="array" ref="N33">IFERROR(_xlfn.LET(
             _xlpm.raw, N4:N31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43726,7 +43675,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="O33" s="111" t="str" cm="1">
+      <c r="O33" s="110" t="str" cm="1">
         <f t="array" ref="O33">IFERROR(_xlfn.LET(
             _xlpm.raw, O4:O31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43742,7 +43691,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="P33" s="111" t="str" cm="1">
+      <c r="P33" s="110" t="str" cm="1">
         <f t="array" ref="P33">IFERROR(_xlfn.LET(
             _xlpm.raw, P4:P31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43758,7 +43707,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="Q33" s="111" t="str" cm="1">
+      <c r="Q33" s="110" t="str" cm="1">
         <f t="array" ref="Q33">IFERROR(_xlfn.LET(
             _xlpm.raw, Q4:Q31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43774,7 +43723,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="R33" s="111" t="str" cm="1">
+      <c r="R33" s="110" t="str" cm="1">
         <f t="array" ref="R33">IFERROR(_xlfn.LET(
             _xlpm.raw, R4:R31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43790,7 +43739,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="S33" s="111" t="str" cm="1">
+      <c r="S33" s="110" t="str" cm="1">
         <f t="array" ref="S33">IFERROR(_xlfn.LET(
             _xlpm.raw, S4:S31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43806,7 +43755,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="T33" s="111" t="str" cm="1">
+      <c r="T33" s="110" t="str" cm="1">
         <f t="array" ref="T33">IFERROR(_xlfn.LET(
             _xlpm.raw, T4:T31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43822,7 +43771,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="U33" s="111" t="str" cm="1">
+      <c r="U33" s="110" t="str" cm="1">
         <f t="array" ref="U33">IFERROR(_xlfn.LET(
             _xlpm.raw, U4:U31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43838,7 +43787,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="V33" s="111" t="str" cm="1">
+      <c r="V33" s="110" t="str" cm="1">
         <f t="array" ref="V33">IFERROR(_xlfn.LET(
             _xlpm.raw, V4:V31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43854,7 +43803,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="W33" s="111" t="str" cm="1">
+      <c r="W33" s="110" t="str" cm="1">
         <f t="array" ref="W33">IFERROR(_xlfn.LET(
             _xlpm.raw, W4:W31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43870,7 +43819,7 @@
         ),"")</f>
         <v/>
       </c>
-      <c r="X33" s="111" t="str" cm="1">
+      <c r="X33" s="110" t="str" cm="1">
         <f t="array" ref="X33">IFERROR(_xlfn.LET(
             _xlpm.raw, X4:X31,
             _xlpm.trpsRaw, $I$4:$I$31,
@@ -43918,8 +43867,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:DQ437"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.5"/>
@@ -43990,16 +43939,16 @@
       <c r="D5" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="84" t="s">
@@ -44456,46 +44405,46 @@
       <c r="D26" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="137" t="s">
         <v>236</v>
       </c>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="135"/>
-      <c r="AJ26" s="135"/>
-      <c r="AK26" s="135"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="135"/>
-      <c r="AN26" s="135"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="135"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="137"/>
+      <c r="AI26" s="137"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="137"/>
+      <c r="AM26" s="137"/>
+      <c r="AN26" s="137"/>
+      <c r="AO26" s="137"/>
+      <c r="AP26" s="137"/>
+      <c r="AQ26" s="137"/>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" s="84" t="s">
@@ -45278,46 +45227,46 @@
       <c r="D46" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="F46" s="135" t="s">
+      <c r="F46" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
-      <c r="N46" s="135"/>
-      <c r="O46" s="135"/>
-      <c r="P46" s="135"/>
-      <c r="Q46" s="135"/>
-      <c r="R46" s="135"/>
-      <c r="S46" s="135"/>
-      <c r="T46" s="135"/>
-      <c r="U46" s="135"/>
-      <c r="V46" s="135"/>
-      <c r="W46" s="135"/>
-      <c r="X46" s="135"/>
-      <c r="Y46" s="135"/>
-      <c r="Z46" s="135"/>
-      <c r="AA46" s="135"/>
-      <c r="AB46" s="135"/>
-      <c r="AC46" s="135"/>
-      <c r="AD46" s="135"/>
-      <c r="AE46" s="135"/>
-      <c r="AF46" s="135"/>
-      <c r="AG46" s="135"/>
-      <c r="AH46" s="135"/>
-      <c r="AI46" s="135"/>
-      <c r="AJ46" s="135"/>
-      <c r="AK46" s="135"/>
-      <c r="AL46" s="135"/>
-      <c r="AM46" s="135"/>
-      <c r="AN46" s="135"/>
-      <c r="AO46" s="135"/>
-      <c r="AP46" s="135"/>
-      <c r="AQ46" s="135"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="137"/>
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137"/>
+      <c r="R46" s="137"/>
+      <c r="S46" s="137"/>
+      <c r="T46" s="137"/>
+      <c r="U46" s="137"/>
+      <c r="V46" s="137"/>
+      <c r="W46" s="137"/>
+      <c r="X46" s="137"/>
+      <c r="Y46" s="137"/>
+      <c r="Z46" s="137"/>
+      <c r="AA46" s="137"/>
+      <c r="AB46" s="137"/>
+      <c r="AC46" s="137"/>
+      <c r="AD46" s="137"/>
+      <c r="AE46" s="137"/>
+      <c r="AF46" s="137"/>
+      <c r="AG46" s="137"/>
+      <c r="AH46" s="137"/>
+      <c r="AI46" s="137"/>
+      <c r="AJ46" s="137"/>
+      <c r="AK46" s="137"/>
+      <c r="AL46" s="137"/>
+      <c r="AM46" s="137"/>
+      <c r="AN46" s="137"/>
+      <c r="AO46" s="137"/>
+      <c r="AP46" s="137"/>
+      <c r="AQ46" s="137"/>
     </row>
     <row r="47" spans="1:121">
       <c r="A47" s="84" t="s">
@@ -49167,10 +49116,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AA046D-2F35-6E46-9DF6-09BDDB6ED9C7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.5"/>
@@ -49384,18 +49333,16 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="85" t="s">
-        <v>406</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="85" t="s">
-        <v>407</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="85" t="s">
-        <v>408</v>
-      </c>
+      <c r="A19" s="94"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="94"/>
@@ -49406,862 +49353,859 @@
     <row r="22" spans="1:1">
       <c r="A22" s="94"/>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="94"/>
+    <row r="24" spans="1:1">
+      <c r="A24" s="81" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="81" t="s">
-        <v>409</v>
+      <c r="A25" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -50275,6 +50219,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Rights xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <PCAType xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Status xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Country xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Notes xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Year xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <ProjectLead xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ProjectLead>
+    <Country1 xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <ReleaseDate xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Teste xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Format xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Range xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Thumbnail xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <Approver xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Approver>
+    <Category xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a33e150b-d324-4614-a48f-ad5ff2c94d05" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014228DDEFD4709428931D679411331EC" ma:contentTypeVersion="30" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f97d37848e108a830cf7cecaa751aba5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xmlns:ns3="a33e150b-d324-4614-a48f-ad5ff2c94d05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0939a333f35a27d21c50d2b3ccb93b00" ns2:_="" ns3:_="">
     <xsd:import namespace="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c"/>
@@ -50678,54 +50669,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Rights xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <PCAType xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Status xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Country xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Notes xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Year xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <ProjectLead xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ProjectLead>
-    <Country1 xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <ReleaseDate xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Teste xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Format xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Range xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Thumbnail xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <Approver xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Approver>
-    <Category xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a33e150b-d324-4614-a48f-ad5ff2c94d05" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20929202-49D4-49A0-A051-A0BC083E7592}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E6CBFB-5F45-4E2C-A165-1EAA1EBBC679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c"/>
+    <ds:schemaRef ds:uri="a33e150b-d324-4614-a48f-ad5ff2c94d05"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B3C3931-ED5E-41A9-BC70-ACA45150BE0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50742,23 +50705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E6CBFB-5F45-4E2C-A165-1EAA1EBBC679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fa84d81c-1722-44b5-bb0e-9e3d9c06ed4c"/>
-    <ds:schemaRef ds:uri="a33e150b-d324-4614-a48f-ad5ff2c94d05"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20929202-49D4-49A0-A051-A0BC083E7592}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>